--- a/gaji_contoh.xlsx
+++ b/gaji_contoh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/19aea5e9cbd4d179/Desktop/slip gaji/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{76FB8668-E950-4B57-A30F-9F7DDC7303F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B4FCBB23-28B0-46A9-9136-CF91027049E9}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{76FB8668-E950-4B57-A30F-9F7DDC7303F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D2B2C4A2-98D7-4816-9BC1-E57016198364}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{85486373-F28A-455D-8919-CE1B83735AF0}"/>
   </bookViews>
@@ -582,9 +582,6 @@
     <t>potongan_bpjskes</t>
   </si>
   <si>
-    <t>pp21</t>
-  </si>
-  <si>
     <t>netto</t>
   </si>
   <si>
@@ -1015,6 +1012,9 @@
   </si>
   <si>
     <t>tunjangan_bpjskes</t>
+  </si>
+  <si>
+    <t>pph21</t>
   </si>
 </sst>
 </file>
@@ -1534,8 +1534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D109DA83-5D44-413F-904D-33AB33FD0B83}">
   <dimension ref="A1:AE157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N130" workbookViewId="0">
-      <selection activeCell="AB155" sqref="AB155"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1570,7 +1570,7 @@
   <sheetData>
     <row r="1" spans="1:31" s="1" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>163</v>
@@ -1594,7 +1594,7 @@
         <v>180</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J1" s="10" t="s">
         <v>169</v>
@@ -1603,7 +1603,7 @@
         <v>170</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M1" s="12" t="s">
         <v>171</v>
@@ -1639,13 +1639,13 @@
         <v>182</v>
       </c>
       <c r="X1" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y1" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z1" s="20" t="s">
         <v>183</v>
-      </c>
-      <c r="Y1" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="Z1" s="20" t="s">
-        <v>184</v>
       </c>
       <c r="AB1" s="4"/>
       <c r="AC1" s="5"/>
@@ -1654,7 +1654,7 @@
     </row>
     <row r="2" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -1790,7 +1790,7 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -1849,7 +1849,7 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -1991,7 +1991,7 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -2050,7 +2050,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -2124,7 +2124,7 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
@@ -2192,7 +2192,7 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
@@ -2260,7 +2260,7 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -2331,7 +2331,7 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -2402,7 +2402,7 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -2473,7 +2473,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -2541,7 +2541,7 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -2612,7 +2612,7 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -2683,7 +2683,7 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
@@ -2754,7 +2754,7 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
@@ -2825,7 +2825,7 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
@@ -2896,7 +2896,7 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
@@ -2967,7 +2967,7 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B21" t="s">
         <v>14</v>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B22" t="s">
         <v>14</v>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B23" t="s">
         <v>14</v>
@@ -3180,7 +3180,7 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
@@ -3248,7 +3248,7 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
@@ -3316,7 +3316,7 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B26" t="s">
         <v>14</v>
@@ -3387,7 +3387,7 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B27" t="s">
         <v>32</v>
@@ -3458,7 +3458,7 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B28" t="s">
         <v>32</v>
@@ -3529,7 +3529,7 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B29" t="s">
         <v>32</v>
@@ -3600,7 +3600,7 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B30" t="s">
         <v>32</v>
@@ -3671,7 +3671,7 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
@@ -3742,7 +3742,7 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
@@ -3884,7 +3884,7 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B34" t="s">
         <v>32</v>
@@ -3952,7 +3952,7 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B35" t="s">
         <v>32</v>
@@ -4023,7 +4023,7 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B36" t="s">
         <v>32</v>
@@ -4094,7 +4094,7 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B37" t="s">
         <v>32</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B38" t="s">
         <v>32</v>
@@ -4233,7 +4233,7 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B39" t="s">
         <v>32</v>
@@ -4304,7 +4304,7 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B40" t="s">
         <v>46</v>
@@ -4381,7 +4381,7 @@
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B41" t="s">
         <v>46</v>
@@ -4458,7 +4458,7 @@
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B42" t="s">
         <v>46</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B43" t="s">
         <v>46</v>
@@ -4612,7 +4612,7 @@
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B44" t="s">
         <v>51</v>
@@ -4692,7 +4692,7 @@
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B45" t="s">
         <v>51</v>
@@ -4772,7 +4772,7 @@
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B46" t="s">
         <v>51</v>
@@ -4852,7 +4852,7 @@
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B47" t="s">
         <v>51</v>
@@ -4932,7 +4932,7 @@
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B48" t="s">
         <v>51</v>
@@ -5012,7 +5012,7 @@
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B49" t="s">
         <v>51</v>
@@ -5092,7 +5092,7 @@
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B50" t="s">
         <v>51</v>
@@ -5172,7 +5172,7 @@
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B51" t="s">
         <v>51</v>
@@ -5252,7 +5252,7 @@
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B52" t="s">
         <v>51</v>
@@ -5332,7 +5332,7 @@
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B53" t="s">
         <v>51</v>
@@ -5412,7 +5412,7 @@
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B54" t="s">
         <v>51</v>
@@ -5492,7 +5492,7 @@
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B55" t="s">
         <v>51</v>
@@ -5560,7 +5560,7 @@
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B56" t="s">
         <v>64</v>
@@ -5634,7 +5634,7 @@
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B57" t="s">
         <v>64</v>
@@ -5708,7 +5708,7 @@
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B58" t="s">
         <v>64</v>
@@ -5785,7 +5785,7 @@
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B59" t="s">
         <v>64</v>
@@ -5859,7 +5859,7 @@
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B60" t="s">
         <v>69</v>
@@ -5927,7 +5927,7 @@
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B61" t="s">
         <v>69</v>
@@ -5995,7 +5995,7 @@
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B62" t="s">
         <v>69</v>
@@ -6063,7 +6063,7 @@
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B63" t="s">
         <v>69</v>
@@ -6131,7 +6131,7 @@
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B64" t="s">
         <v>69</v>
@@ -6199,7 +6199,7 @@
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B65" t="s">
         <v>69</v>
@@ -6270,7 +6270,7 @@
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B66" t="s">
         <v>69</v>
@@ -6335,7 +6335,7 @@
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B67" t="s">
         <v>77</v>
@@ -6412,7 +6412,7 @@
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B68" t="s">
         <v>79</v>
@@ -6486,7 +6486,7 @@
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B69" t="s">
         <v>79</v>
@@ -6560,7 +6560,7 @@
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B70" t="s">
         <v>79</v>
@@ -6634,7 +6634,7 @@
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B71" t="s">
         <v>79</v>
@@ -6708,7 +6708,7 @@
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B72" t="s">
         <v>79</v>
@@ -6779,7 +6779,7 @@
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B73" t="s">
         <v>79</v>
@@ -6853,7 +6853,7 @@
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B74" t="s">
         <v>79</v>
@@ -6927,7 +6927,7 @@
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B75" t="s">
         <v>79</v>
@@ -7001,7 +7001,7 @@
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B76" t="s">
         <v>79</v>
@@ -7075,7 +7075,7 @@
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B77" t="s">
         <v>79</v>
@@ -7149,7 +7149,7 @@
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B78" t="s">
         <v>79</v>
@@ -7223,7 +7223,7 @@
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B79" t="s">
         <v>79</v>
@@ -7297,7 +7297,7 @@
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B80" t="s">
         <v>92</v>
@@ -7374,7 +7374,7 @@
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B81" t="s">
         <v>92</v>
@@ -7451,7 +7451,7 @@
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B82" t="s">
         <v>92</v>
@@ -7528,7 +7528,7 @@
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B83" t="s">
         <v>92</v>
@@ -7605,7 +7605,7 @@
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B84" t="s">
         <v>92</v>
@@ -7676,7 +7676,7 @@
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B85" t="s">
         <v>92</v>
@@ -7747,7 +7747,7 @@
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B86" t="s">
         <v>92</v>
@@ -7818,7 +7818,7 @@
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B87" t="s">
         <v>100</v>
@@ -7895,7 +7895,7 @@
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B88" t="s">
         <v>100</v>
@@ -7975,7 +7975,7 @@
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B89" t="s">
         <v>100</v>
@@ -8052,7 +8052,7 @@
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B90" t="s">
         <v>100</v>
@@ -8132,7 +8132,7 @@
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B91" t="s">
         <v>100</v>
@@ -8209,7 +8209,7 @@
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B92" t="s">
         <v>100</v>
@@ -8286,7 +8286,7 @@
     </row>
     <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B93" t="s">
         <v>100</v>
@@ -8363,7 +8363,7 @@
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B94" t="s">
         <v>108</v>
@@ -8440,7 +8440,7 @@
     </row>
     <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B95" t="s">
         <v>108</v>
@@ -8517,7 +8517,7 @@
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B96" t="s">
         <v>108</v>
@@ -8594,7 +8594,7 @@
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B97" t="s">
         <v>108</v>
@@ -8668,7 +8668,7 @@
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B98" t="s">
         <v>108</v>
@@ -8745,7 +8745,7 @@
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B99" t="s">
         <v>108</v>
@@ -8822,7 +8822,7 @@
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B100" t="s">
         <v>108</v>
@@ -8899,7 +8899,7 @@
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B101" t="s">
         <v>108</v>
@@ -8979,7 +8979,7 @@
     </row>
     <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B102" t="s">
         <v>117</v>
@@ -9053,7 +9053,7 @@
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B103" t="s">
         <v>117</v>
@@ -9127,7 +9127,7 @@
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B104" t="s">
         <v>117</v>
@@ -9201,7 +9201,7 @@
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B105" t="s">
         <v>117</v>
@@ -9275,7 +9275,7 @@
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B106" t="s">
         <v>117</v>
@@ -9349,7 +9349,7 @@
     </row>
     <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B107" t="s">
         <v>117</v>
@@ -9423,7 +9423,7 @@
     </row>
     <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B108" t="s">
         <v>117</v>
@@ -9497,7 +9497,7 @@
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B109" t="s">
         <v>117</v>
@@ -9565,7 +9565,7 @@
     </row>
     <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B110" t="s">
         <v>117</v>
@@ -9636,7 +9636,7 @@
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B111" t="s">
         <v>127</v>
@@ -9710,7 +9710,7 @@
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B112" t="s">
         <v>127</v>
@@ -9784,7 +9784,7 @@
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B113" t="s">
         <v>127</v>
@@ -9858,7 +9858,7 @@
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B114" t="s">
         <v>131</v>
@@ -9935,7 +9935,7 @@
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B115" t="s">
         <v>131</v>
@@ -10012,7 +10012,7 @@
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B116" t="s">
         <v>131</v>
@@ -10089,7 +10089,7 @@
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B117" t="s">
         <v>131</v>
@@ -10166,7 +10166,7 @@
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B118" t="s">
         <v>131</v>
@@ -10243,7 +10243,7 @@
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B119" t="s">
         <v>131</v>
@@ -10320,7 +10320,7 @@
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B120" t="s">
         <v>131</v>
@@ -10394,7 +10394,7 @@
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B121" t="s">
         <v>131</v>
@@ -10471,7 +10471,7 @@
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B122" t="s">
         <v>131</v>
@@ -10548,7 +10548,7 @@
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B123" t="s">
         <v>131</v>
@@ -10625,7 +10625,7 @@
     </row>
     <row r="124" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B124" t="s">
         <v>131</v>
@@ -10702,7 +10702,7 @@
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B125" t="s">
         <v>131</v>
@@ -10779,7 +10779,7 @@
     </row>
     <row r="126" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B126" t="s">
         <v>144</v>
@@ -10856,7 +10856,7 @@
     </row>
     <row r="127" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B127" t="s">
         <v>144</v>
@@ -10933,7 +10933,7 @@
     </row>
     <row r="128" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B128" t="s">
         <v>144</v>
@@ -11007,7 +11007,7 @@
     </row>
     <row r="129" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B129" t="s">
         <v>148</v>
@@ -11081,7 +11081,7 @@
     </row>
     <row r="130" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B130" t="s">
         <v>148</v>
@@ -11155,7 +11155,7 @@
     </row>
     <row r="131" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B131" t="s">
         <v>148</v>
@@ -11229,7 +11229,7 @@
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B132" t="s">
         <v>148</v>
@@ -11303,7 +11303,7 @@
     </row>
     <row r="133" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B133" t="s">
         <v>148</v>
@@ -11377,7 +11377,7 @@
     </row>
     <row r="134" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B134" t="s">
         <v>148</v>
@@ -11454,7 +11454,7 @@
     </row>
     <row r="135" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B135" t="s">
         <v>148</v>
@@ -11528,7 +11528,7 @@
     </row>
     <row r="136" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B136" t="s">
         <v>148</v>
@@ -11602,7 +11602,7 @@
     </row>
     <row r="137" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B137" t="s">
         <v>157</v>
@@ -11679,7 +11679,7 @@
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B138" t="s">
         <v>157</v>
@@ -11756,7 +11756,7 @@
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B139" t="s">
         <v>157</v>
@@ -11830,7 +11830,7 @@
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B140" t="s">
         <v>157</v>

--- a/gaji_contoh.xlsx
+++ b/gaji_contoh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/19aea5e9cbd4d179/Desktop/slip gaji/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{76FB8668-E950-4B57-A30F-9F7DDC7303F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D2B2C4A2-98D7-4816-9BC1-E57016198364}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{76FB8668-E950-4B57-A30F-9F7DDC7303F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AA5260AF-79E9-4165-8CF8-0DC8E27F0335}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{85486373-F28A-455D-8919-CE1B83735AF0}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="327">
   <si>
     <t>Alkatra Staff Office</t>
   </si>
@@ -517,9 +517,6 @@
   </si>
   <si>
     <t>ANDI ROZA SAPUTRA</t>
-  </si>
-  <si>
-    <t>RIDO ALMINATA</t>
   </si>
   <si>
     <t>lokasi</t>
@@ -1532,10 +1529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D109DA83-5D44-413F-904D-33AB33FD0B83}">
-  <dimension ref="A1:AE157"/>
+  <dimension ref="A1:AE140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AC6" sqref="AC6"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="E158" sqref="E158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1570,82 +1567,82 @@
   <sheetData>
     <row r="1" spans="1:31" s="1" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="L1" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="H1" s="11" t="s">
+      <c r="M1" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="U1" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="V1" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="W1" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="X1" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="J1" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q1" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="R1" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="S1" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="T1" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="U1" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="V1" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="W1" s="18" t="s">
+      <c r="Y1" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z1" s="20" t="s">
         <v>182</v>
-      </c>
-      <c r="X1" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="Y1" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="Z1" s="20" t="s">
-        <v>183</v>
       </c>
       <c r="AB1" s="4"/>
       <c r="AC1" s="5"/>
@@ -1654,7 +1651,7 @@
     </row>
     <row r="2" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -1722,7 +1719,7 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -1790,7 +1787,7 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -1849,7 +1846,7 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -1917,7 +1914,7 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -1991,7 +1988,7 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -2050,7 +2047,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -2124,7 +2121,7 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
@@ -2192,7 +2189,7 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
@@ -2260,7 +2257,7 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -2331,7 +2328,7 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -2402,7 +2399,7 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -2473,7 +2470,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -2541,7 +2538,7 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -2612,7 +2609,7 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -2683,7 +2680,7 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
@@ -2754,7 +2751,7 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
@@ -2825,7 +2822,7 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
@@ -2896,7 +2893,7 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
@@ -2967,7 +2964,7 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B21" t="s">
         <v>14</v>
@@ -3038,7 +3035,7 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B22" t="s">
         <v>14</v>
@@ -3109,7 +3106,7 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B23" t="s">
         <v>14</v>
@@ -3180,7 +3177,7 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
@@ -3248,7 +3245,7 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
@@ -3316,7 +3313,7 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B26" t="s">
         <v>14</v>
@@ -3387,7 +3384,7 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B27" t="s">
         <v>32</v>
@@ -3458,7 +3455,7 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B28" t="s">
         <v>32</v>
@@ -3529,7 +3526,7 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B29" t="s">
         <v>32</v>
@@ -3600,7 +3597,7 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B30" t="s">
         <v>32</v>
@@ -3671,7 +3668,7 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
@@ -3742,7 +3739,7 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
@@ -3813,7 +3810,7 @@
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
@@ -3884,7 +3881,7 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B34" t="s">
         <v>32</v>
@@ -3952,7 +3949,7 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B35" t="s">
         <v>32</v>
@@ -4023,7 +4020,7 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B36" t="s">
         <v>32</v>
@@ -4094,7 +4091,7 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B37" t="s">
         <v>32</v>
@@ -4165,7 +4162,7 @@
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B38" t="s">
         <v>32</v>
@@ -4233,7 +4230,7 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B39" t="s">
         <v>32</v>
@@ -4304,7 +4301,7 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B40" t="s">
         <v>46</v>
@@ -4381,7 +4378,7 @@
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B41" t="s">
         <v>46</v>
@@ -4458,7 +4455,7 @@
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B42" t="s">
         <v>46</v>
@@ -4535,7 +4532,7 @@
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B43" t="s">
         <v>46</v>
@@ -4612,7 +4609,7 @@
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B44" t="s">
         <v>51</v>
@@ -4692,7 +4689,7 @@
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B45" t="s">
         <v>51</v>
@@ -4772,7 +4769,7 @@
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B46" t="s">
         <v>51</v>
@@ -4852,7 +4849,7 @@
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B47" t="s">
         <v>51</v>
@@ -4932,7 +4929,7 @@
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B48" t="s">
         <v>51</v>
@@ -5012,7 +5009,7 @@
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B49" t="s">
         <v>51</v>
@@ -5092,7 +5089,7 @@
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B50" t="s">
         <v>51</v>
@@ -5172,7 +5169,7 @@
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B51" t="s">
         <v>51</v>
@@ -5252,7 +5249,7 @@
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B52" t="s">
         <v>51</v>
@@ -5332,7 +5329,7 @@
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B53" t="s">
         <v>51</v>
@@ -5412,7 +5409,7 @@
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B54" t="s">
         <v>51</v>
@@ -5492,7 +5489,7 @@
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B55" t="s">
         <v>51</v>
@@ -5560,7 +5557,7 @@
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B56" t="s">
         <v>64</v>
@@ -5634,7 +5631,7 @@
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B57" t="s">
         <v>64</v>
@@ -5708,7 +5705,7 @@
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B58" t="s">
         <v>64</v>
@@ -5785,7 +5782,7 @@
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B59" t="s">
         <v>64</v>
@@ -5859,7 +5856,7 @@
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B60" t="s">
         <v>69</v>
@@ -5927,7 +5924,7 @@
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B61" t="s">
         <v>69</v>
@@ -5995,7 +5992,7 @@
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B62" t="s">
         <v>69</v>
@@ -6063,7 +6060,7 @@
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B63" t="s">
         <v>69</v>
@@ -6131,7 +6128,7 @@
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B64" t="s">
         <v>69</v>
@@ -6199,7 +6196,7 @@
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B65" t="s">
         <v>69</v>
@@ -6270,7 +6267,7 @@
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B66" t="s">
         <v>69</v>
@@ -6335,7 +6332,7 @@
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B67" t="s">
         <v>77</v>
@@ -6412,7 +6409,7 @@
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B68" t="s">
         <v>79</v>
@@ -6486,7 +6483,7 @@
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B69" t="s">
         <v>79</v>
@@ -6560,7 +6557,7 @@
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B70" t="s">
         <v>79</v>
@@ -6634,7 +6631,7 @@
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B71" t="s">
         <v>79</v>
@@ -6708,7 +6705,7 @@
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B72" t="s">
         <v>79</v>
@@ -6779,7 +6776,7 @@
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B73" t="s">
         <v>79</v>
@@ -6853,7 +6850,7 @@
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B74" t="s">
         <v>79</v>
@@ -6927,7 +6924,7 @@
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B75" t="s">
         <v>79</v>
@@ -7001,7 +6998,7 @@
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B76" t="s">
         <v>79</v>
@@ -7075,7 +7072,7 @@
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B77" t="s">
         <v>79</v>
@@ -7149,7 +7146,7 @@
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B78" t="s">
         <v>79</v>
@@ -7223,7 +7220,7 @@
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B79" t="s">
         <v>79</v>
@@ -7297,7 +7294,7 @@
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B80" t="s">
         <v>92</v>
@@ -7374,7 +7371,7 @@
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B81" t="s">
         <v>92</v>
@@ -7451,7 +7448,7 @@
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B82" t="s">
         <v>92</v>
@@ -7528,7 +7525,7 @@
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B83" t="s">
         <v>92</v>
@@ -7605,7 +7602,7 @@
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B84" t="s">
         <v>92</v>
@@ -7676,7 +7673,7 @@
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B85" t="s">
         <v>92</v>
@@ -7747,7 +7744,7 @@
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B86" t="s">
         <v>92</v>
@@ -7818,7 +7815,7 @@
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B87" t="s">
         <v>100</v>
@@ -7895,7 +7892,7 @@
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B88" t="s">
         <v>100</v>
@@ -7975,7 +7972,7 @@
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B89" t="s">
         <v>100</v>
@@ -8052,7 +8049,7 @@
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B90" t="s">
         <v>100</v>
@@ -8132,7 +8129,7 @@
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B91" t="s">
         <v>100</v>
@@ -8209,7 +8206,7 @@
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B92" t="s">
         <v>100</v>
@@ -8286,7 +8283,7 @@
     </row>
     <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B93" t="s">
         <v>100</v>
@@ -8363,7 +8360,7 @@
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B94" t="s">
         <v>108</v>
@@ -8440,7 +8437,7 @@
     </row>
     <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B95" t="s">
         <v>108</v>
@@ -8517,7 +8514,7 @@
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B96" t="s">
         <v>108</v>
@@ -8594,7 +8591,7 @@
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B97" t="s">
         <v>108</v>
@@ -8668,7 +8665,7 @@
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B98" t="s">
         <v>108</v>
@@ -8745,7 +8742,7 @@
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B99" t="s">
         <v>108</v>
@@ -8822,7 +8819,7 @@
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B100" t="s">
         <v>108</v>
@@ -8899,7 +8896,7 @@
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B101" t="s">
         <v>108</v>
@@ -8979,7 +8976,7 @@
     </row>
     <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B102" t="s">
         <v>117</v>
@@ -9053,7 +9050,7 @@
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B103" t="s">
         <v>117</v>
@@ -9127,7 +9124,7 @@
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B104" t="s">
         <v>117</v>
@@ -9201,7 +9198,7 @@
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B105" t="s">
         <v>117</v>
@@ -9275,7 +9272,7 @@
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B106" t="s">
         <v>117</v>
@@ -9349,7 +9346,7 @@
     </row>
     <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B107" t="s">
         <v>117</v>
@@ -9423,7 +9420,7 @@
     </row>
     <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B108" t="s">
         <v>117</v>
@@ -9497,7 +9494,7 @@
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B109" t="s">
         <v>117</v>
@@ -9565,7 +9562,7 @@
     </row>
     <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B110" t="s">
         <v>117</v>
@@ -9636,7 +9633,7 @@
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B111" t="s">
         <v>127</v>
@@ -9710,7 +9707,7 @@
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B112" t="s">
         <v>127</v>
@@ -9784,7 +9781,7 @@
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B113" t="s">
         <v>127</v>
@@ -9858,7 +9855,7 @@
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B114" t="s">
         <v>131</v>
@@ -9935,7 +9932,7 @@
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B115" t="s">
         <v>131</v>
@@ -10012,7 +10009,7 @@
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B116" t="s">
         <v>131</v>
@@ -10089,7 +10086,7 @@
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B117" t="s">
         <v>131</v>
@@ -10166,7 +10163,7 @@
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B118" t="s">
         <v>131</v>
@@ -10243,7 +10240,7 @@
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B119" t="s">
         <v>131</v>
@@ -10320,7 +10317,7 @@
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B120" t="s">
         <v>131</v>
@@ -10394,7 +10391,7 @@
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B121" t="s">
         <v>131</v>
@@ -10471,7 +10468,7 @@
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B122" t="s">
         <v>131</v>
@@ -10548,7 +10545,7 @@
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B123" t="s">
         <v>131</v>
@@ -10625,7 +10622,7 @@
     </row>
     <row r="124" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B124" t="s">
         <v>131</v>
@@ -10702,7 +10699,7 @@
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B125" t="s">
         <v>131</v>
@@ -10779,7 +10776,7 @@
     </row>
     <row r="126" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B126" t="s">
         <v>144</v>
@@ -10856,7 +10853,7 @@
     </row>
     <row r="127" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B127" t="s">
         <v>144</v>
@@ -10933,7 +10930,7 @@
     </row>
     <row r="128" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B128" t="s">
         <v>144</v>
@@ -11007,7 +11004,7 @@
     </row>
     <row r="129" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B129" t="s">
         <v>148</v>
@@ -11081,7 +11078,7 @@
     </row>
     <row r="130" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B130" t="s">
         <v>148</v>
@@ -11155,7 +11152,7 @@
     </row>
     <row r="131" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B131" t="s">
         <v>148</v>
@@ -11229,7 +11226,7 @@
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B132" t="s">
         <v>148</v>
@@ -11303,7 +11300,7 @@
     </row>
     <row r="133" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B133" t="s">
         <v>148</v>
@@ -11377,7 +11374,7 @@
     </row>
     <row r="134" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B134" t="s">
         <v>148</v>
@@ -11454,7 +11451,7 @@
     </row>
     <row r="135" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B135" t="s">
         <v>148</v>
@@ -11528,7 +11525,7 @@
     </row>
     <row r="136" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B136" t="s">
         <v>148</v>
@@ -11602,7 +11599,7 @@
     </row>
     <row r="137" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B137" t="s">
         <v>157</v>
@@ -11679,7 +11676,7 @@
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B138" t="s">
         <v>157</v>
@@ -11756,7 +11753,7 @@
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B139" t="s">
         <v>157</v>
@@ -11830,7 +11827,7 @@
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B140" t="s">
         <v>157</v>
@@ -11903,1090 +11900,6 @@
       </c>
       <c r="Z140" s="22">
         <v>5661766.7982000001</v>
-      </c>
-    </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B141" t="s">
-        <v>14</v>
-      </c>
-      <c r="C141" s="21">
-        <v>45870</v>
-      </c>
-      <c r="D141" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="E141" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F141" s="22">
-        <v>4989600</v>
-      </c>
-      <c r="G141" s="22">
-        <v>0</v>
-      </c>
-      <c r="H141" s="22">
-        <v>343783.44</v>
-      </c>
-      <c r="I141" s="22">
-        <v>199584</v>
-      </c>
-      <c r="J141" s="22">
-        <v>155000</v>
-      </c>
-      <c r="K141" s="22">
-        <v>1386780.5</v>
-      </c>
-      <c r="L141" s="22">
-        <v>250000</v>
-      </c>
-      <c r="M141" s="22">
-        <v>0</v>
-      </c>
-      <c r="N141" s="22">
-        <v>1636780.5</v>
-      </c>
-      <c r="O141" s="22">
-        <v>0</v>
-      </c>
-      <c r="R141" s="22">
-        <v>7324747.9400000004</v>
-      </c>
-      <c r="T141" s="22">
-        <v>0</v>
-      </c>
-      <c r="U141" s="22">
-        <v>0</v>
-      </c>
-      <c r="V141" s="22">
-        <v>493471.44</v>
-      </c>
-      <c r="W141" s="22">
-        <v>249480</v>
-      </c>
-      <c r="Y141" s="22">
-        <v>742951.44</v>
-      </c>
-      <c r="Z141" s="22">
-        <v>6581796.5</v>
-      </c>
-    </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B142" t="s">
-        <v>14</v>
-      </c>
-      <c r="C142" s="21">
-        <v>45870</v>
-      </c>
-      <c r="D142" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="E142" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F142" s="22">
-        <v>4989600</v>
-      </c>
-      <c r="G142" s="22">
-        <v>0</v>
-      </c>
-      <c r="H142" s="22">
-        <v>343783.44</v>
-      </c>
-      <c r="I142" s="22">
-        <v>199584</v>
-      </c>
-      <c r="J142" s="22">
-        <v>155000</v>
-      </c>
-      <c r="K142" s="22">
-        <v>1386780.5</v>
-      </c>
-      <c r="L142" s="22">
-        <v>250000</v>
-      </c>
-      <c r="M142" s="22">
-        <v>0</v>
-      </c>
-      <c r="N142" s="22">
-        <v>1636780.5</v>
-      </c>
-      <c r="O142" s="22">
-        <v>0</v>
-      </c>
-      <c r="R142" s="22">
-        <v>7324747.9400000004</v>
-      </c>
-      <c r="T142" s="22">
-        <v>0</v>
-      </c>
-      <c r="U142" s="22">
-        <v>0</v>
-      </c>
-      <c r="V142" s="22">
-        <v>493471.44</v>
-      </c>
-      <c r="W142" s="22">
-        <v>249480</v>
-      </c>
-      <c r="Y142" s="22">
-        <v>742951.44</v>
-      </c>
-      <c r="Z142" s="22">
-        <v>6581796.5</v>
-      </c>
-    </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B143" t="s">
-        <v>14</v>
-      </c>
-      <c r="C143" s="21">
-        <v>45870</v>
-      </c>
-      <c r="D143" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E143" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F143" s="22">
-        <v>4989600</v>
-      </c>
-      <c r="G143" s="22">
-        <v>0</v>
-      </c>
-      <c r="H143" s="22">
-        <v>343783.44</v>
-      </c>
-      <c r="I143" s="22">
-        <v>199584</v>
-      </c>
-      <c r="J143" s="22">
-        <v>155000</v>
-      </c>
-      <c r="K143" s="22">
-        <v>1300523</v>
-      </c>
-      <c r="L143" s="22">
-        <v>250000</v>
-      </c>
-      <c r="M143" s="22">
-        <v>0</v>
-      </c>
-      <c r="N143" s="22">
-        <v>1550523</v>
-      </c>
-      <c r="O143" s="22">
-        <v>0</v>
-      </c>
-      <c r="R143" s="22">
-        <v>7238490.4400000004</v>
-      </c>
-      <c r="T143" s="22">
-        <v>0</v>
-      </c>
-      <c r="U143" s="22">
-        <v>0</v>
-      </c>
-      <c r="V143" s="22">
-        <v>493471.44</v>
-      </c>
-      <c r="W143" s="22">
-        <v>249480</v>
-      </c>
-      <c r="Y143" s="22">
-        <v>742951.44</v>
-      </c>
-      <c r="Z143" s="22">
-        <v>6495539</v>
-      </c>
-    </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B144" t="s">
-        <v>14</v>
-      </c>
-      <c r="C144" s="21">
-        <v>45870</v>
-      </c>
-      <c r="D144" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E144" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F144" s="22">
-        <v>4989600</v>
-      </c>
-      <c r="G144" s="22">
-        <v>0</v>
-      </c>
-      <c r="H144" s="22">
-        <v>343783.44</v>
-      </c>
-      <c r="I144" s="22">
-        <v>199584</v>
-      </c>
-      <c r="J144" s="22">
-        <v>155000</v>
-      </c>
-      <c r="K144" s="22">
-        <v>1099616</v>
-      </c>
-      <c r="L144" s="22">
-        <v>0</v>
-      </c>
-      <c r="M144" s="22">
-        <v>0</v>
-      </c>
-      <c r="N144" s="22">
-        <v>1099616</v>
-      </c>
-      <c r="O144" s="22">
-        <v>0</v>
-      </c>
-      <c r="R144" s="22">
-        <v>6787583.4400000004</v>
-      </c>
-      <c r="T144" s="22">
-        <v>0</v>
-      </c>
-      <c r="U144" s="22">
-        <v>2000000</v>
-      </c>
-      <c r="V144" s="22">
-        <v>493471.44</v>
-      </c>
-      <c r="W144" s="22">
-        <v>249480</v>
-      </c>
-      <c r="Y144" s="22">
-        <v>2742951.44</v>
-      </c>
-      <c r="Z144" s="22">
-        <v>4044632.0000000005</v>
-      </c>
-    </row>
-    <row r="145" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B145" t="s">
-        <v>14</v>
-      </c>
-      <c r="C145" s="21">
-        <v>45870</v>
-      </c>
-      <c r="D145" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E145" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F145" s="22">
-        <v>4989600</v>
-      </c>
-      <c r="G145" s="22">
-        <v>0</v>
-      </c>
-      <c r="H145" s="22">
-        <v>343783.44</v>
-      </c>
-      <c r="I145" s="22">
-        <v>199584</v>
-      </c>
-      <c r="J145" s="22">
-        <v>155000</v>
-      </c>
-      <c r="K145" s="22">
-        <v>1282049</v>
-      </c>
-      <c r="L145" s="22">
-        <v>250000</v>
-      </c>
-      <c r="M145" s="22">
-        <v>0</v>
-      </c>
-      <c r="N145" s="22">
-        <v>1532049</v>
-      </c>
-      <c r="O145" s="22">
-        <v>0</v>
-      </c>
-      <c r="R145" s="22">
-        <v>7220016.4400000004</v>
-      </c>
-      <c r="T145" s="22">
-        <v>0</v>
-      </c>
-      <c r="U145" s="22">
-        <v>0</v>
-      </c>
-      <c r="V145" s="22">
-        <v>493471.44</v>
-      </c>
-      <c r="W145" s="22">
-        <v>249480</v>
-      </c>
-      <c r="Y145" s="22">
-        <v>742951.44</v>
-      </c>
-      <c r="Z145" s="22">
-        <v>6477065</v>
-      </c>
-    </row>
-    <row r="146" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B146" t="s">
-        <v>14</v>
-      </c>
-      <c r="C146" s="21">
-        <v>45870</v>
-      </c>
-      <c r="D146" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="E146" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F146" s="22">
-        <v>4989600</v>
-      </c>
-      <c r="G146" s="22">
-        <v>0</v>
-      </c>
-      <c r="H146" s="22">
-        <v>343783.44</v>
-      </c>
-      <c r="I146" s="22">
-        <v>199584</v>
-      </c>
-      <c r="J146" s="22">
-        <v>155000</v>
-      </c>
-      <c r="K146" s="22">
-        <v>1402472</v>
-      </c>
-      <c r="L146" s="22">
-        <v>0</v>
-      </c>
-      <c r="M146" s="22">
-        <v>0</v>
-      </c>
-      <c r="N146" s="22">
-        <v>1402472</v>
-      </c>
-      <c r="O146" s="22">
-        <v>0</v>
-      </c>
-      <c r="R146" s="22">
-        <v>7090439.4400000004</v>
-      </c>
-      <c r="T146" s="22">
-        <v>0</v>
-      </c>
-      <c r="U146" s="22">
-        <v>250000</v>
-      </c>
-      <c r="V146" s="22">
-        <v>493471.44</v>
-      </c>
-      <c r="W146" s="22">
-        <v>249480</v>
-      </c>
-      <c r="Y146" s="22">
-        <v>992951.44</v>
-      </c>
-      <c r="Z146" s="22">
-        <v>6097488</v>
-      </c>
-    </row>
-    <row r="147" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B147" t="s">
-        <v>14</v>
-      </c>
-      <c r="C147" s="21">
-        <v>45870</v>
-      </c>
-      <c r="D147" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="E147" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="F147" s="22">
-        <v>4989600</v>
-      </c>
-      <c r="G147" s="22">
-        <v>0</v>
-      </c>
-      <c r="H147" s="22">
-        <v>343783.44</v>
-      </c>
-      <c r="I147" s="22">
-        <v>199584</v>
-      </c>
-      <c r="J147" s="22">
-        <v>155000</v>
-      </c>
-      <c r="K147" s="22">
-        <v>1386780.5</v>
-      </c>
-      <c r="L147" s="22">
-        <v>0</v>
-      </c>
-      <c r="M147" s="22">
-        <v>0</v>
-      </c>
-      <c r="N147" s="22">
-        <v>1386780.5</v>
-      </c>
-      <c r="O147" s="22">
-        <v>0</v>
-      </c>
-      <c r="R147" s="22">
-        <v>7074747.9400000004</v>
-      </c>
-      <c r="T147" s="22">
-        <v>0</v>
-      </c>
-      <c r="U147" s="22">
-        <v>0</v>
-      </c>
-      <c r="V147" s="22">
-        <v>493471.44</v>
-      </c>
-      <c r="W147" s="22">
-        <v>249480</v>
-      </c>
-      <c r="Y147" s="22">
-        <v>742951.44</v>
-      </c>
-      <c r="Z147" s="22">
-        <v>6331796.5</v>
-      </c>
-    </row>
-    <row r="148" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B148" t="s">
-        <v>14</v>
-      </c>
-      <c r="C148" s="21">
-        <v>45870</v>
-      </c>
-      <c r="D148" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E148" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F148" s="22">
-        <v>4989600</v>
-      </c>
-      <c r="G148" s="22">
-        <v>0</v>
-      </c>
-      <c r="H148" s="22">
-        <v>343783.44</v>
-      </c>
-      <c r="I148" s="22">
-        <v>199584</v>
-      </c>
-      <c r="J148" s="22">
-        <v>155000</v>
-      </c>
-      <c r="K148" s="22">
-        <v>1386780.5</v>
-      </c>
-      <c r="L148" s="22">
-        <v>0</v>
-      </c>
-      <c r="M148" s="22">
-        <v>0</v>
-      </c>
-      <c r="N148" s="22">
-        <v>1386780.5</v>
-      </c>
-      <c r="O148" s="22">
-        <v>0</v>
-      </c>
-      <c r="R148" s="22">
-        <v>7074747.9400000004</v>
-      </c>
-      <c r="T148" s="22">
-        <v>0</v>
-      </c>
-      <c r="U148" s="22">
-        <v>0</v>
-      </c>
-      <c r="V148" s="22">
-        <v>493471.44</v>
-      </c>
-      <c r="W148" s="22">
-        <v>249480</v>
-      </c>
-      <c r="Y148" s="22">
-        <v>742951.44</v>
-      </c>
-      <c r="Z148" s="22">
-        <v>6331796.5</v>
-      </c>
-    </row>
-    <row r="149" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B149" t="s">
-        <v>14</v>
-      </c>
-      <c r="C149" s="21">
-        <v>45870</v>
-      </c>
-      <c r="D149" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="E149" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F149" s="22">
-        <v>4989600</v>
-      </c>
-      <c r="G149" s="22">
-        <v>0</v>
-      </c>
-      <c r="H149" s="22">
-        <v>343783.44</v>
-      </c>
-      <c r="I149" s="22">
-        <v>199584</v>
-      </c>
-      <c r="J149" s="22">
-        <v>155000</v>
-      </c>
-      <c r="K149" s="22">
-        <v>1300523</v>
-      </c>
-      <c r="L149" s="22">
-        <v>0</v>
-      </c>
-      <c r="M149" s="22">
-        <v>0</v>
-      </c>
-      <c r="N149" s="22">
-        <v>1300523</v>
-      </c>
-      <c r="O149" s="22">
-        <v>0</v>
-      </c>
-      <c r="R149" s="22">
-        <v>6988490.4400000004</v>
-      </c>
-      <c r="T149" s="22">
-        <v>0</v>
-      </c>
-      <c r="U149" s="22">
-        <v>0</v>
-      </c>
-      <c r="V149" s="22">
-        <v>493471.44</v>
-      </c>
-      <c r="W149" s="22">
-        <v>249480</v>
-      </c>
-      <c r="Y149" s="22">
-        <v>742951.44</v>
-      </c>
-      <c r="Z149" s="22">
-        <v>6245539</v>
-      </c>
-    </row>
-    <row r="150" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B150" t="s">
-        <v>14</v>
-      </c>
-      <c r="C150" s="21">
-        <v>45870</v>
-      </c>
-      <c r="D150" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="E150" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="F150" s="22">
-        <v>4989600</v>
-      </c>
-      <c r="G150" s="22">
-        <v>0</v>
-      </c>
-      <c r="H150" s="22">
-        <v>343783.44</v>
-      </c>
-      <c r="I150" s="22">
-        <v>199584</v>
-      </c>
-      <c r="J150" s="22">
-        <v>155000</v>
-      </c>
-      <c r="K150" s="22">
-        <v>1464538.5</v>
-      </c>
-      <c r="L150" s="22">
-        <v>0</v>
-      </c>
-      <c r="M150" s="22">
-        <v>0</v>
-      </c>
-      <c r="N150" s="22">
-        <v>1464538.5</v>
-      </c>
-      <c r="O150" s="22">
-        <v>0</v>
-      </c>
-      <c r="R150" s="22">
-        <v>7152505.9400000004</v>
-      </c>
-      <c r="T150" s="22">
-        <v>0</v>
-      </c>
-      <c r="U150" s="22">
-        <v>0</v>
-      </c>
-      <c r="V150" s="22">
-        <v>493471.44</v>
-      </c>
-      <c r="W150" s="22">
-        <v>249480</v>
-      </c>
-      <c r="Y150" s="22">
-        <v>742951.44</v>
-      </c>
-      <c r="Z150" s="22">
-        <v>6409554.5</v>
-      </c>
-    </row>
-    <row r="151" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B151" t="s">
-        <v>14</v>
-      </c>
-      <c r="C151" s="21">
-        <v>45870</v>
-      </c>
-      <c r="D151" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E151" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="F151" s="22">
-        <v>4989600</v>
-      </c>
-      <c r="G151" s="22">
-        <v>0</v>
-      </c>
-      <c r="H151" s="22">
-        <v>343783.44</v>
-      </c>
-      <c r="I151" s="22">
-        <v>199584</v>
-      </c>
-      <c r="J151" s="22">
-        <v>155000</v>
-      </c>
-      <c r="K151" s="22">
-        <v>1559465</v>
-      </c>
-      <c r="L151" s="22">
-        <v>250000</v>
-      </c>
-      <c r="M151" s="22">
-        <v>0</v>
-      </c>
-      <c r="N151" s="22">
-        <v>1809465</v>
-      </c>
-      <c r="O151" s="22">
-        <v>0</v>
-      </c>
-      <c r="R151" s="22">
-        <v>7497432.4400000004</v>
-      </c>
-      <c r="T151" s="22">
-        <v>0</v>
-      </c>
-      <c r="U151" s="22">
-        <v>0</v>
-      </c>
-      <c r="V151" s="22">
-        <v>493471.44</v>
-      </c>
-      <c r="W151" s="22">
-        <v>249480</v>
-      </c>
-      <c r="Y151" s="22">
-        <v>742951.44</v>
-      </c>
-      <c r="Z151" s="22">
-        <v>6754481</v>
-      </c>
-    </row>
-    <row r="152" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B152" t="s">
-        <v>14</v>
-      </c>
-      <c r="C152" s="21">
-        <v>45870</v>
-      </c>
-      <c r="D152" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="E152" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F152" s="22">
-        <v>4989600</v>
-      </c>
-      <c r="G152" s="22">
-        <v>0</v>
-      </c>
-      <c r="H152" s="22">
-        <v>343783.44</v>
-      </c>
-      <c r="I152" s="22">
-        <v>199584</v>
-      </c>
-      <c r="J152" s="22">
-        <v>155000</v>
-      </c>
-      <c r="K152" s="22">
-        <v>1548941</v>
-      </c>
-      <c r="L152" s="22">
-        <v>0</v>
-      </c>
-      <c r="M152" s="22">
-        <v>0</v>
-      </c>
-      <c r="N152" s="22">
-        <v>1548941</v>
-      </c>
-      <c r="O152" s="22">
-        <v>0</v>
-      </c>
-      <c r="R152" s="22">
-        <v>7236908.4400000004</v>
-      </c>
-      <c r="T152" s="22">
-        <v>0</v>
-      </c>
-      <c r="U152" s="22">
-        <v>0</v>
-      </c>
-      <c r="V152" s="22">
-        <v>493471.44</v>
-      </c>
-      <c r="W152" s="22">
-        <v>249480</v>
-      </c>
-      <c r="Y152" s="22">
-        <v>742951.44</v>
-      </c>
-      <c r="Z152" s="22">
-        <v>6493957</v>
-      </c>
-    </row>
-    <row r="153" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B153" t="s">
-        <v>14</v>
-      </c>
-      <c r="C153" s="21">
-        <v>45870</v>
-      </c>
-      <c r="D153" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="E153" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F153" s="22">
-        <v>4989600</v>
-      </c>
-      <c r="G153" s="22">
-        <v>0</v>
-      </c>
-      <c r="H153" s="22">
-        <v>343783.44</v>
-      </c>
-      <c r="I153" s="22">
-        <v>199584</v>
-      </c>
-      <c r="J153" s="22">
-        <v>155000</v>
-      </c>
-      <c r="K153" s="22">
-        <v>1548941</v>
-      </c>
-      <c r="L153" s="22">
-        <v>250000</v>
-      </c>
-      <c r="M153" s="22">
-        <v>0</v>
-      </c>
-      <c r="N153" s="22">
-        <v>1798941</v>
-      </c>
-      <c r="O153" s="22">
-        <v>0</v>
-      </c>
-      <c r="R153" s="22">
-        <v>7486908.4400000004</v>
-      </c>
-      <c r="T153" s="22">
-        <v>0</v>
-      </c>
-      <c r="U153" s="22">
-        <v>0</v>
-      </c>
-      <c r="V153" s="22">
-        <v>493471.44</v>
-      </c>
-      <c r="W153" s="22">
-        <v>249480</v>
-      </c>
-      <c r="Y153" s="22">
-        <v>742951.44</v>
-      </c>
-      <c r="Z153" s="22">
-        <v>6743957</v>
-      </c>
-    </row>
-    <row r="154" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B154" t="s">
-        <v>14</v>
-      </c>
-      <c r="C154" s="21">
-        <v>45870</v>
-      </c>
-      <c r="D154" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="E154" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F154" s="22">
-        <v>4989600</v>
-      </c>
-      <c r="G154" s="22">
-        <v>0</v>
-      </c>
-      <c r="H154" s="22">
-        <v>343783.44</v>
-      </c>
-      <c r="I154" s="22">
-        <v>199584</v>
-      </c>
-      <c r="J154" s="22">
-        <v>155000</v>
-      </c>
-      <c r="K154" s="22">
-        <v>1548941</v>
-      </c>
-      <c r="L154" s="22">
-        <v>250000</v>
-      </c>
-      <c r="M154" s="22">
-        <v>0</v>
-      </c>
-      <c r="N154" s="22">
-        <v>1798941</v>
-      </c>
-      <c r="R154" s="22">
-        <v>7486908.4400000004</v>
-      </c>
-      <c r="T154" s="22">
-        <v>0</v>
-      </c>
-      <c r="U154" s="22">
-        <v>0</v>
-      </c>
-      <c r="V154" s="22">
-        <v>493471.44</v>
-      </c>
-      <c r="W154" s="22">
-        <v>249480</v>
-      </c>
-      <c r="Y154" s="22">
-        <v>742951.44</v>
-      </c>
-      <c r="Z154" s="22">
-        <v>6743957</v>
-      </c>
-    </row>
-    <row r="155" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B155" t="s">
-        <v>14</v>
-      </c>
-      <c r="C155" s="21">
-        <v>45870</v>
-      </c>
-      <c r="D155" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E155" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F155" s="22">
-        <v>4989600</v>
-      </c>
-      <c r="G155" s="22">
-        <v>0</v>
-      </c>
-      <c r="H155" s="22">
-        <v>343783.44</v>
-      </c>
-      <c r="I155" s="22">
-        <v>199584</v>
-      </c>
-      <c r="J155" s="22">
-        <v>155000</v>
-      </c>
-      <c r="K155" s="22">
-        <v>1568134</v>
-      </c>
-      <c r="L155" s="22">
-        <v>500000</v>
-      </c>
-      <c r="M155" s="22">
-        <v>0</v>
-      </c>
-      <c r="N155" s="22">
-        <v>2068134</v>
-      </c>
-      <c r="R155" s="22">
-        <v>7756101.4400000004</v>
-      </c>
-      <c r="T155" s="22">
-        <v>0</v>
-      </c>
-      <c r="U155" s="22">
-        <v>0</v>
-      </c>
-      <c r="V155" s="22">
-        <v>493471.44</v>
-      </c>
-      <c r="W155" s="22">
-        <v>249480</v>
-      </c>
-      <c r="Y155" s="22">
-        <v>742951.44</v>
-      </c>
-      <c r="Z155" s="22">
-        <v>7013150</v>
-      </c>
-    </row>
-    <row r="156" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B156" t="s">
-        <v>14</v>
-      </c>
-      <c r="C156" s="21">
-        <v>45870</v>
-      </c>
-      <c r="D156" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="E156" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="F156" s="22">
-        <v>2414322.5806451612</v>
-      </c>
-      <c r="G156" s="22">
-        <v>0</v>
-      </c>
-      <c r="I156" s="22">
-        <v>199584</v>
-      </c>
-      <c r="J156" s="22">
-        <v>155000</v>
-      </c>
-      <c r="K156" s="22">
-        <v>840750</v>
-      </c>
-      <c r="L156" s="22">
-        <v>250000</v>
-      </c>
-      <c r="M156" s="22">
-        <v>0</v>
-      </c>
-      <c r="N156" s="22">
-        <v>1090750</v>
-      </c>
-      <c r="O156" s="22">
-        <v>0</v>
-      </c>
-      <c r="R156" s="22">
-        <v>3859656.5806451612</v>
-      </c>
-      <c r="T156" s="22">
-        <v>0</v>
-      </c>
-      <c r="U156" s="22">
-        <v>250000</v>
-      </c>
-      <c r="W156" s="22">
-        <v>249480</v>
-      </c>
-      <c r="Y156" s="22">
-        <v>499480</v>
-      </c>
-      <c r="Z156" s="22">
-        <v>3360176.5806451612</v>
-      </c>
-    </row>
-    <row r="157" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B157" t="s">
-        <v>14</v>
-      </c>
-      <c r="C157" s="21">
-        <v>45870</v>
-      </c>
-      <c r="D157" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E157" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="F157" s="22">
-        <v>2575277.4193548388</v>
-      </c>
-      <c r="G157" s="22">
-        <v>0</v>
-      </c>
-      <c r="H157" s="22">
-        <v>343783.44</v>
-      </c>
-      <c r="K157" s="22">
-        <v>748000</v>
-      </c>
-      <c r="L157" s="22">
-        <v>0</v>
-      </c>
-      <c r="M157" s="22">
-        <v>0</v>
-      </c>
-      <c r="N157" s="22">
-        <v>748000</v>
-      </c>
-      <c r="O157" s="22">
-        <v>0</v>
-      </c>
-      <c r="R157" s="22">
-        <v>3667060.8593548387</v>
-      </c>
-      <c r="T157" s="22">
-        <v>0</v>
-      </c>
-      <c r="U157" s="22">
-        <v>0</v>
-      </c>
-      <c r="V157" s="22">
-        <v>493471.44</v>
-      </c>
-      <c r="Y157" s="22">
-        <v>493471.44</v>
-      </c>
-      <c r="Z157" s="22">
-        <v>3173589.4193548388</v>
       </c>
     </row>
   </sheetData>
